--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/126.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/126.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-7.079499130449174</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8.889266763774968</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.458270936512843</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-9.467333992045427</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.292230065235787</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-6.850838418830622</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-8.019038016478044</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8.545537999723052</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.777504028377151</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-10.11109280002783</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.238456181099356</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-6.81876447808705</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-9.042801317480542</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8.170995871272519</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.03571016816555</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-10.92118245831197</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.159290350964912</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-6.769414905833001</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-10.08963448555765</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7.788013669702804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.2772004462551724</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-11.69361332674831</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.114861693683163</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-6.793853444007746</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-11.15084601982185</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7.399771166391385</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-0.4917274882899205</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-12.45353654997548</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-5.983474339925133</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-6.927822439058314</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-12.21588048922143</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7.010130048516299</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-1.26342542817573</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-13.21473227439879</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-5.865340036244493</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-7.046117038719415</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-13.28336703192947</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.619591843633728</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-2.036900080435606</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-13.95015192477045</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-5.801233511309242</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-7.195150121949394</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-14.34571237257818</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.230934539111823</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-2.806649543369026</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-14.70317375360993</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-5.703831586985868</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-7.131779889971838</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-15.39421245905519</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.847342498173145</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-3.566367073601219</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-15.31042400414249</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.616328653125947</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-7.215857911211049</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-16.44124267717106</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.464288206169188</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-4.32501957315245</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-15.96334391504241</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.516979237038591</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-7.111882562435365</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-17.49371307652137</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.07924363276258</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-5.087613895031355</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-16.58876693176775</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.420186991123678</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-6.890839790861812</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-18.55164863479074</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.692199639908273</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-5.854168137457586</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-17.18464618406706</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.326784424621019</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-6.639347283216613</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-19.60050838244564</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.308476017516186</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-6.614146269386732</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-17.9909636235028</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.208697337882339</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-6.242805095314599</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-20.64606295625824</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.92596158756593</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-7.371729553150538</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-18.60391069433702</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.019934772704207</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-5.7898127717039</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-21.68171416295895</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.547070288268322</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-8.122137099210288</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-19.3227561298406</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.838321018212235</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-5.353525147052333</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-22.69213354766057</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.177410009761326</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-8.854262283885783</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-20.08072305229645</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.586069061813938</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-4.947024451717406</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-23.65398268209399</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.82551907783768</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-9.551194652602144</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-20.7748701905622</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.318600824593616</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-4.594608131346805</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-24.55673756299652</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.495247681870228</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-10.205308769873</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-21.62393189615635</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.080135386880112</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-4.208185230734121</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-25.39143381479845</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.189875423992415</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-10.81010926831048</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-22.22778579118316</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.795596154222899</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-4.08326912596606</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-26.1428532766588</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.914969843445878</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-11.35456944060391</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-22.99944681903821</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.479708185574141</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-3.930853103308294</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-26.79662276341062</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.675789346504581</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-11.82827482815912</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-23.62753257848006</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.21567850144284</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-3.933527298879241</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-27.34615755088452</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.47474294373107</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-12.22645430081813</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-24.14559000495755</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-2.964253255712537</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-3.989134160647151</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-27.79575398402273</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.310258824358498</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-12.55222088509438</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-24.523703999176</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-2.742344397278786</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-4.193760980758801</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-28.14135294322699</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.183822010649802</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-12.80263344215928</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-24.86160514420634</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-2.582526645889275</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-4.3329864927476</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-28.38014793051414</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.096459255299746</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-12.97565845218401</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-25.14649597250289</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.391969008549276</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-4.583136980774987</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-28.51343456389351</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.047696558579683</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-13.07223468830449</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-25.19752281762132</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.34297853198031</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-4.846435323591069</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-28.55466855211087</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.032611171463039</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-13.10211182812941</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-25.27860967320267</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.281758867443816</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-5.072918360510181</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-28.50757379348504</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.049840711843429</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-13.06798811734335</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-25.25131656035844</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.238529686161321</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-5.301865594820436</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-28.37092288923878</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.099834221555064</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-12.96897421279825</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-25.12236373451601</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.231021364022346</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-5.469296487334222</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-28.15033312323733</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.180536626487615</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-12.80914026105847</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-24.89672346013582</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.289911659422169</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-5.563858011455859</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-27.86047829317612</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.286579541765477</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-12.59911853720733</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-24.70950728771071</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.330717037684072</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-5.57265168523517</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-27.50606828562086</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.416239863095547</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-12.34232170990887</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-24.38585272190851</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.401293112035187</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-5.604312192062253</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-27.08048598477075</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.571938451465717</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-12.03395517882088</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-24.04618094354117</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.486945473117253</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-5.560022263452868</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-26.59431372709918</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.749803776393466</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-11.68168664624812</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-23.66289996047997</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.53978868647664</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-5.405283135931015</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-26.05975683849053</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.945370539376007</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-11.29435979294579</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-23.33695398682988</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.657372125834418</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-5.29870577845869</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-25.48228074959263</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.156639221554117</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-10.87593473634921</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-22.90551721117111</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-2.726316316402018</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-5.0801337667194</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-24.85622538310152</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.385680552947656</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-10.42231032281449</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-22.56472689972387</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-2.8180687750383</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-4.88135408342668</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-24.19261246037629</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.628462254832654</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-9.941472622193052</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-22.09286443659863</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-2.884847613214982</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-4.659395851038042</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-23.5012971460182</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.881378831366097</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-9.440562445828146</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-21.6208344199351</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-2.983864853973815</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-4.421884628457636</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-22.78832899361404</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3.142217063267366</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-8.92396315235677</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-21.29914974032623</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.078760966903721</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-4.102756300807602</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-22.04953318813786</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.412504299782302</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-8.388649772871826</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-20.77419091946105</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.164774496173408</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-3.932713555932499</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-21.29179415273832</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3.689721885967205</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-7.839610592084984</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-20.36176467768648</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.252258377583063</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-3.749434363286595</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-20.52400705187448</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3.970615540460202</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-7.283290828705355</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-19.90028600546083</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.327774006757072</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-3.505219605060244</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-19.75233542984873</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.252930340663901</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-6.724156436255758</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-19.51105913602755</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.423936693445858</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-3.270789449524157</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-18.97527185226761</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.537217778984481</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-6.161115164626572</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-19.06891251934064</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.498987608506896</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-3.093695359517807</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-18.19549994417414</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.822496055591261</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-5.596111502918052</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-18.56230307515454</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.608316366695778</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-2.933670184063688</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-17.42351159577169</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>5.104926729621607</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-5.036747618278825</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-18.14165765305605</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.700002555939836</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-2.729453516646968</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-16.66604344671145</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>5.382045212482535</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-4.487904715111155</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-17.64755585407914</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-3.75806199883465</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-2.59855574497604</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-15.92356046132277</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>5.653681397734995</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-3.949919695201206</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-17.19227666276998</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-3.859037500133701</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-2.526211372033403</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-15.19286768837258</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>5.921004153059585</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-3.420477574991708</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-16.75684124456244</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-3.944591285494834</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-2.441598511680002</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-14.48507245786633</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>6.179949879949143</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-2.907626454266385</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-16.25678450226544</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-3.98629378565397</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-2.40946550894836</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-13.80577644374147</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>6.42846921515988</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-2.415425169017535</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-15.83028376327503</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.039237231469095</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-2.350003211848103</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-13.15595347885243</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>6.666205883535516</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-1.944579334724427</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-15.42224561281389</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.116272086459838</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-2.378631869954257</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-12.52940611091143</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>6.895427212854424</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-1.490598428966952</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-14.97321571563532</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.168476628551665</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-2.449798284357054</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-11.93639858909956</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>7.112378044349459</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-1.060919675774111</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-14.54918299497909</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.22437900272959</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-2.485727660432974</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-11.38089981031399</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>7.315606363585244</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-0.6584188408109236</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-14.20631864243635</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.267596586868446</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-2.599494174342041</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-10.86373364443812</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>7.504810759113074</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-0.2836928800539444</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-13.7523436516414</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.305957452924688</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-2.769943790690516</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-10.38020832342582</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>7.681707706595303</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.06665774692451569</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-13.36219297351056</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.377320476308462</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-2.963952577835803</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-9.936264088557008</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>7.844123978479914</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.3883288865126867</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-13.14219064926992</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.409739462984424</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-3.108818509685288</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-9.535428055071613</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>7.990769185427924</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.6787648772342486</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-12.80491896212665</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.431607534050928</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-3.352527959791484</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-9.179479467548523</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8.12099239372159</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.9366765219641023</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-12.48228783145018</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.493508116592524</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-3.598124112294362</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-8.866244622030633</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8.235588849396708</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>1.16363883344955</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-12.25808308333042</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.53394735646239</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-3.751852623575906</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-8.598497928384653</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>8.33354353914341</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>1.357641542126505</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-12.01876228897305</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.581074006375057</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-3.928359374923116</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-8.379562003728358</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>8.413640888926075</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1.516277160858644</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-11.76907581761213</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.655347084444866</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-4.125140794286135</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-8.21336576189387</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8.47444351204825</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>1.636698894732424</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-11.77460961284951</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.697085204402322</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-4.315753517117397</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-8.100102464537999</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8.515880704049032</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1.718766711075941</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-11.57567374969255</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.747668631486871</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-4.3684400916974</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-8.040991508509757</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>8.53750635058655</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>1.761597064742703</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-11.47275059244621</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.831960813293541</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-4.53170711405225</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-8.037914041804193</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>8.538632236745011</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1.763826921883467</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-11.519262548979</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.905518181927331</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-4.561001860134973</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-8.097367678791445</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8.516881220939378</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>1.720748269971247</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-11.5532125186145</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.949064627925098</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-4.579248733227045</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-8.222605461368969</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8.471063183114543</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1.630004034373475</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-11.58761986412478</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.032960021745827</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-4.651137016372919</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-8.415127035949965</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8.400629480084159</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>1.490507607960644</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-11.71575756464582</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.08271342469277</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-4.519235190904801</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-8.675251603573622</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>8.305463332670364</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>1.302027705463187</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-11.88141367232041</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.159085585761273</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-4.461954906141575</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-9.013073542930858</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>8.181871728946879</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>1.057250186856509</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-12.11773208841069</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.237442515126884</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-4.33612005933687</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-9.433737927464408</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>8.027972352213755</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.7524470577043754</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-12.39441279333133</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.321896228577099</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-4.23359829171202</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-9.938980381597432</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>7.843130227115844</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.3863607269801569</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-12.71111162305776</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.408228679296864</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-4.092738731386618</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-10.52567418039301</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>7.628489260854946</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-0.03874325686514195</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-13.0746982726596</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.51134799543436</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-3.896954803377671</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-11.20053927575931</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>7.381590970021553</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-0.527734006703145</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-13.62231757745916</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.603119506520907</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-3.716093871021078</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-11.96896248074673</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>7.100464597875821</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-1.084514675580041</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-14.07014290055169</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.679532257592147</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-3.54430223505479</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-12.83160671873145</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>6.784867614985344</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-1.709565601567879</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-14.66180161507585</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.783373081737482</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-3.298079369234059</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-13.78231344149791</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>6.43705311613732</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-2.398424451186216</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-15.37376377008778</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.873673412316656</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-3.137312637707506</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-14.82075539889072</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6.057140825265613</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-3.150854106972656</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-16.10065630390299</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.956364359933714</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-2.975049669149845</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-15.95468353556151</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>5.642295071952574</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-3.972470713936296</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-16.96214867064819</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.077880059352582</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-2.852003860670668</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-17.18532706985816</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5.192066148677045</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-4.86416493364161</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-17.81905822169763</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.182012468823702</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-2.680412379219507</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-18.50643290061783</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>4.708741742267276</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-5.821405921854057</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-18.82924303248469</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.298058044098183</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-2.637982903234327</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-19.90897138886993</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>4.195625331365128</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-6.83765102292096</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-19.98266800460837</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.397252555481216</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-2.607976132073206</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-21.40418598578066</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.648603517759518</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-7.921046966691399</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-21.20205925760178</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.488951998603718</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-2.614833885132445</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-22.9923178431116</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3.067588076473078</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-9.071768485836436</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.48748471857504</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.58068664734084</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-2.605843338059566</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-24.66637194370571</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2.455138123086507</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-10.28474716192959</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-23.97144753699259</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-6.679837669435225</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-2.734696908698961</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-26.40360101401416</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.819575710405452</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-11.54350087665448</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.46662285705312</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-6.748701922548455</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-2.880957359711209</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-28.21625012142315</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.156421000563721</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-12.85690210648694</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-27.08921585026748</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-6.822661049372603</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-3.077689560750835</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-30.10087802804059</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.4669329648131148</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-14.22245741457748</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-28.8110277089899</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.873090400120232</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-3.376224941893794</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-32.04599977010846</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.2446866416487639</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-15.63184507695718</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-30.66883417063666</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.888697670356377</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-3.690785809133081</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-34.0161071003059</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-0.9654471846430144</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-17.05933668567891</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-32.56953886655808</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-6.91796306232988</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-4.032193631171744</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-36.01957899755211</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.698414099896403</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-18.51100344402866</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-34.5988250534533</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-6.91279653483862</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-4.463493799052954</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-38.05568403300141</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.443319795362595</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.98631537654588</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-36.68607117917269</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.894714516986611</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-4.877203338153982</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-40.09191409349027</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.188271231034928</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-21.46171789915032</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-38.84526796416296</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.864626970365829</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-5.418568802025206</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-42.12172450942738</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.930874050252701</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-22.93246890425206</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.01235787934858</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.79956243852924</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-5.922521777675642</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-44.10408713191001</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.656118171875709</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-24.36884039816147</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-43.2269084663716</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-6.72179737767293</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-6.470095312737335</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-46.09591877385954</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.384826518776178</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-25.81207291208974</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-45.58553698242267</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-6.593610421375616</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-7.019548987752591</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-47.98474078082057</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-6.075848959274531</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-27.18066716275709</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-47.7537499591622</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-6.473924171365831</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-7.525106480745595</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-49.91174908661658</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-6.780841794716023</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-28.57693027202902</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-50.12746395425131</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-6.302479869294327</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-8.033446449621009</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-40.15071730516914</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-3.209784289805804</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-21.50432526878488</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-39.7209472239038</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-3.052553608823337</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-21.19292437438567</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-39.24416572419412</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-2.878123877329508</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-20.8474601554585</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-38.74102363393833</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-2.694050166919181</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-20.48289569705264</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-38.2043252585979</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.497699944520012</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-20.09401717481686</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-37.62949153054754</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-2.287397965734182</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-19.67750670829325</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-37.00528221420626</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-2.059032008767199</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-19.22521989756716</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-36.32791138856163</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-1.811217000611698</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-18.73441355682646</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-35.60305771352427</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-1.546030469703788</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-18.20920230421758</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-34.82921201517286</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-1.262920287233867</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-17.64849262921154</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-34.00450907256151</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-0.9612040651710071</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-17.05093303830952</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-33.12429236003118</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-0.6391782212224996</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-16.41314952685599</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-32.19905140199633</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-0.3006803307309728</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-15.74274254780676</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-31.22619756163165</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.05523665485022306</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-15.037836438202</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-30.21093856589899</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.4266674971336894</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-14.30220458968623</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-29.16770156309777</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.808334047521757</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-13.54630056122017</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-28.1341172673497</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>1.186469170829509</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-12.79739064830742</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-27.14741910780123</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>1.547451077930126</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-12.08245328347083</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-26.24401180736777</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1.877961160515393</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-11.4278664389574</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-25.45505236705137</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>2.16660068075204</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-10.85620571600552</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-24.80832942473436</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>2.403203210942377</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-10.38760608228261</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-24.31848519096271</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>2.582411922317749</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-10.03267692559566</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-23.98549401054718</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>2.704236200787157</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-9.791399656821737</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-23.80234367125649</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>2.771241452721077</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-9.658693398403926</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-23.75717741809489</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>2.78776545253306</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-9.625967035531545</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-23.83319977843157</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>2.759952796402047</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-9.681050979331172</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-24.0057524015895</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>2.696824701573871</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-9.806078391718991</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-24.25086772510494</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>2.60714966155689</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-9.983682962863012</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-24.54669981806815</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>2.498919974427146</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-10.19803566528823</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-24.87155574890958</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>2.380071963702415</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-10.43341833110125</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-25.20491553041406</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>2.25811283312777</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-10.67496267921312</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-25.53241620121515</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>2.138297248616484</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-10.91226165894558</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-25.84733859595629</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>2.02308340581944</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-11.14044672734308</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-26.14071698758503</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.915751401307826</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-11.3530215377664</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-26.40804811063677</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1.817948747383015</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-11.54672313415012</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-26.64928633055084</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1.72969213937435</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-11.72151845080721</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-26.86986683429303</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1.648993123024195</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-11.88134569134036</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-27.07142371820129</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1.575253866861239</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-12.02738888200769</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-27.25707392517432</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1.507334042426361</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-12.16190648343446</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-27.43034558794332</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1.443942888133065</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-12.28745489434627</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-27.59660086260662</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1.383118667947065</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-12.40791940196465</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-27.75860357884953</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1.323850239300549</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-12.52530260971289</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-27.91909697364022</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1.265133993437572</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-12.64159220003486</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-28.08086381473751</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1.205951859327111</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-12.75880449841896</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-28.24720906591722</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1.145094721379816</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-12.87933420082149</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-28.42090362032553</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1.08154885287227</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-13.00518902867682</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-28.60338099990928</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1.014789802145948</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-13.13740767694266</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-28.7979327087899</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.9436133778040279</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-13.2783750890388</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-29.00710614081559</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.867087619975548</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-13.4299370442721</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-29.23295414225991</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.7844614982104652</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-13.59358098486697</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-29.4722253921171</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.6969245029784835</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-13.76695108310689</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-29.72412084463583</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.6047689638602221</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-13.94946836997451</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-29.98716535147785</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.5085345614613922</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-14.14006398904653</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-30.26105101234493</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.4083339406022681</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-14.33851484329404</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-30.54037790739271</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.3061426531218242</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-14.54090828280835</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-30.82312943186979</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.2026984705685159</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-14.74578312508603</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-31.10779159619759</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.09855528355227401</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-14.95204237029059</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-31.39393884348037</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-0.006131218632956291</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-15.15937767029888</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-31.67774143273954</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-0.1099599315168935</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-15.36501408842253</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-31.95765390025034</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-0.2123654497247385</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-15.56783181942819</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-32.23411484961792</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-0.3135082356677358</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-15.76814866476571</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-32.50822633346365</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-0.4137914734940776</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-15.96676314482291</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-32.77887111842156</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-0.5128064252049925</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-16.16286573961554</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-33.04467833144015</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-0.6100515591378103</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-16.35546314804391</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-33.30683068494814</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-0.7059595686992481</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-16.54541233462036</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-33.56536499287959</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-0.8005439222068502</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-16.73273997382153</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-33.81835290750413</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-0.8930991367988872</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-16.91604883202387</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-34.06128239039345</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-0.9819744905995718</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-17.09206959648692</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-34.29353401113921</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-1.066943366007608</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-17.26035344307987</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-34.51294503186089</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-1.147214528908382</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-17.41933330480644</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-34.71709637175329</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-1.221902962547734</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-17.56725637485384</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-34.90201069802758</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-1.289553566233125</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-17.7012407751162</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-35.06765106232327</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-1.350152822467333</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-17.82125973371476</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-35.21129834926568</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-1.402705947339915</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-17.92534304612261</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-35.32776972974819</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-1.445316811303076</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-18.00973536107246</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-35.41161786933646</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-1.475992515967676</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-18.07048967320285</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-35.45795015192802</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-1.492943105738592</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-18.10406091249454</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-35.46057576864212</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-1.493903683317056</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-18.10596337017776</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-35.41152948274773</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-1.47596017987882</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-18.07042563044142</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-35.30550480494288</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-1.437171224995965</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-17.99360274086379</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-35.13836201504247</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-1.37602230881274</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-17.87249516140147</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-34.90627246214547</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-1.291112725661974</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-17.7043287452097</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-34.60595334185854</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-1.181241466928131</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-17.48672485247898</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-34.23854919856795</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-1.046827262302071</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-17.22051279209121</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-33.80882962135684</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-0.889615058145203</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-16.90914849169503</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-33.31993059540498</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-0.7107521495040201</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-16.55490420948702</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-32.77677905105053</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-0.5120410457806288</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-16.16134987874276</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-32.18720715902716</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-0.296347133821869</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-15.73416049890465</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-31.56516166279277</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-0.06877280690025218</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-15.28344153932962</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-30.9173100865683</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.1682426321583052</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-14.8140241250688</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-30.25060786020115</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.412154550725558</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-14.33094799055189</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-29.56976716734328</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.6612390041231495</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-13.83762746885549</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-28.88805638343568</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.9106417789075263</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-13.34367650045536</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-28.20527312611545</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>1.160436916334984</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-12.84894844403895</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-27.51746370747074</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>1.412070866658514</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-12.35057855400016</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-26.82795677757463</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1.664325848695665</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-11.85097868880727</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-26.13022523385133</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1.919589792243262</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-11.34541946950034</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-25.43591892019229</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>2.173600620976678</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-10.8423420881622</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-24.71490114905754</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>2.437383792718649</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-10.31991023774573</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-24.00546180707475</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>2.696931015101582</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-9.805867834037699</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-23.24371975528258</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>2.975613098283444</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-9.253928165433541</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-30.69686991313933</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.2488903088929983</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-14.65429856444998</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-29.76864485320025</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.5884799281831897</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-13.98172937811257</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-28.80906113601327</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.9395420609142097</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-13.28643847535087</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-27.90085053675987</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1.271809422512936</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-12.6283712779376</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-27.04173284734173</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1.586116223380955</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-12.00587560282842</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-26.24949517008145</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>1.87595508123922</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-11.43183954952928</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-25.51218127229163</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>2.145700164252001</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-10.89759992412603</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-24.82146639402171</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>2.398397072225103</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-10.39712480907189</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-24.1689107378621</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>2.637133491230477</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-9.924298933489572</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-23.54747941877149</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>2.864483122449041</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-9.474024991658284</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-22.94728966543074</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>3.084061561596369</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-9.039142169081902</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-22.35812707899383</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>3.299605729776086</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-8.612249362065542</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-21.79111124151311</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>3.507047546089709</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-8.201403547926612</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-21.2514436808601</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>3.7044840400769</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-7.810373626600297</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-20.74061090921771</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>3.891371373687972</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-7.440236688473939</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-20.25261200543367</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>4.069904974106962</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-7.086644612783665</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-19.79240896842982</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>4.238269502147804</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-6.753192742643467</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-19.36003692150706</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>4.396452108008345</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-6.439906527538515</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-18.95316495745486</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>4.545305550277406</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-6.145097049087191</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-18.56534943997016</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>4.687187222752507</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-5.864095405950315</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-18.19797215032523</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>4.821591603016247</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-5.5979028030577</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-17.85275193020859</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>4.947889855649482</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-5.347764671076747</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-17.53046068002687</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>5.065799582151534</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-5.114240310171634</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-17.2287225720037</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>5.176189975226742</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-4.895608253616882</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-16.94726909533346</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>5.279159269113959</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-4.691673945046974</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-16.68787851177427</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>5.374056889658815</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-4.5037258694591</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-16.45179441881452</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>5.460427868755127</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-4.332665107191417</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-16.23957552721735</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>5.538067802984441</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-4.178896486404226</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-16.05334421268651</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>5.606200224668454</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-4.043957828647271</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-15.89948238935988</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>5.662490320962791</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-3.932473312887721</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-15.78499181919123</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>5.704376508713893</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-3.849516244666912</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-15.71360394719717</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>5.730493644868341</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-3.797790337822126</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-15.68483526786251</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>5.74101861912769</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-3.776945256077201</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-15.69972959391648</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>5.735569554312972</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-3.787737320617909</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-15.76098573664319</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>5.713159094732069</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-3.832122024123513</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-15.87023071136399</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>5.673191999491999</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-3.911278262120625</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-16.0275955306312</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>5.615620337864883</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-4.025300963101816</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-16.23404815889099</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>5.540089981642005</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-4.174891490441189</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-16.49245549443795</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>5.445552080773497</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-4.36212712855663</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-16.80614999659786</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>5.330787460468049</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-4.589422496007775</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-17.17445246209477</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>5.196044606132763</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-4.856285458705177</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-17.59359725768093</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>5.042701168529483</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-5.159987530855057</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-18.05838230029359</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>4.872660321234357</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-5.496759410244216</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-18.56717458423189</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>4.686519496710902</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-5.865417860863503</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-19.11309864579016</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>4.486794072105263</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-6.260981089794597</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-19.68535893012426</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>4.277433583492011</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-6.675626901913758</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-20.26902946845338</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>4.063898672125691</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-7.098540305133988</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-20.85728994494026</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>3.848684539395042</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-7.524779465334213</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-21.43815263452881</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>3.636176874895874</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-7.945658369999828</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-21.99778103141155</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>3.431437741636681</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-8.351151425280449</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-22.51962122945114</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>3.240523359090048</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-8.729264075478314</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-23.00093829687893</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>3.064434297568263</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-9.078014655894089</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-23.43576369886959</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>2.905354135770645</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-9.39307851210466</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-23.8162704681438</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>2.76614635686878</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-9.668784414963422</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-24.1356191783754</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>2.649313153792491</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-9.900176683356248</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-24.39707020645507</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>2.5536617229914</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-10.08961770667247</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-24.60324499389161</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>2.478233014379065</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-10.23900691734362</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-24.7537469420197</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>2.423172122928231</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-10.34805694967237</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-24.85069333926239</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>2.387704442133916</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-10.4183019390892</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-24.89987436932309</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>2.369711642762924</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-10.45393731115439</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-24.90789372863093</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>2.366777773282521</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-10.4597479428615</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-24.87523099800005</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>2.378727379836611</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-10.43608132674428</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-24.80418775730772</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>2.404718433193255</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-10.3846051313156</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-24.69872361128348</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>2.443302318441393</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-10.30818838936301</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-24.56494157789965</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>2.492246256442446</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-10.21125319851024</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-24.40316311771497</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2.551432641377017</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-10.09403248121946</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-24.21349451203143</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2.620822590404683</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-9.956603246323882</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-23.99930879154495</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>2.699182085764754</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-9.801409509406096</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-23.76549593851222</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>2.784722135450279</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-9.631994432065074</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-23.51177794573699</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>2.87754444793909</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-9.448156577082798</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-23.23377505991481</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>2.979251348810875</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-9.246722482285625</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-22.93485604334209</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>3.088610381891912</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-9.030133070478231</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-22.6186680921742</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>3.204287226436812</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-8.801031010832649</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-22.28537849121473</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>3.326220681573902</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-8.559537513828008</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-21.93055274394446</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>3.456033100598417</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-8.302439451695545</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-21.56073267542128</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>3.591331167517558</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-8.034476870945776</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-21.18100726473572</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>3.730253087658331</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-7.759337121418664</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-20.79510061678178</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>3.871436403339154</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-7.479718598478106</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-20.40264466228223</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>4.01501577210282</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-7.195354608123919</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-20.0111312153315</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>4.158250326022014</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-6.911673535698344</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-19.62767889155963</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>4.298535731216928</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-6.633833356059839</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-19.25843425546377</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>4.433623277124135</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-6.366287719579447</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-18.90592363344224</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>4.562588711364723</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-6.11086714060491</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-18.57632937506389</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>4.683170231465335</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-5.872051198495399</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-18.27673990578097</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>4.792774548573315</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-5.654975993044586</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-18.01277669497272</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>4.889345057314884</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-5.463714703537958</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-17.78586145975681</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>4.972361624808951</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-5.2992974714426</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-17.59676758173579</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>5.04154131066173</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-5.16228467016106</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-17.44823811623227</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>5.09588057257201</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-5.054663850521274</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-17.34243372788944</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>5.134588934915656</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-4.978000577302453</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-17.27794300374569</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>5.158182760815123</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-4.931272175177089</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-17.24942558278847</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>5.168615812608227</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-4.910609149110006</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-17.25467592638921</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>5.166694982993222</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-4.914413419729222</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-17.29093503053702</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>5.15342964907284</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-4.940685880177142</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-17.35232610181349</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>5.130969826102794</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-4.98516834961134</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-17.42652819537866</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>5.103823111591569</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-5.038933372607953</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-17.50891206724592</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>5.073683106876664</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-5.098626712144302</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-17.58843570596767</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>5.044589513777746</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-5.156247596666836</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-17.66528779301037</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>5.016473303489043</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-5.211932740153525</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-17.7210890479846</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>4.996058505666352</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-5.25236496534801</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-17.77181857776555</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>4.977499190206571</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-5.28912234245469</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>